--- a/notebooks/FZD5/input/FZD5_MCOPCB11_individuals.xlsx
+++ b/notebooks/FZD5/input/FZD5_MCOPCB11_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FZD5/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB83922-7537-9944-B886-F6E6BF8B0141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF11FD1-EEF9-F640-985D-824168FC8244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3620" windowWidth="33120" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24480" yWindow="5440" windowWidth="37400" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="163">
   <si>
     <t>PMID</t>
   </si>
@@ -501,13 +501,34 @@
   </si>
   <si>
     <t>c.577C&gt;T</t>
+  </si>
+  <si>
+    <t>Patient 1 ADN120143</t>
+  </si>
+  <si>
+    <t>Patient 2 ADN140259</t>
+  </si>
+  <si>
+    <t>Patient 3 SG170145</t>
+  </si>
+  <si>
+    <t>Patient 4 ADN190002</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>Posterior cortical cataract</t>
+  </si>
+  <si>
+    <t>HP:0010924</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,6 +543,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -559,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -567,6 +600,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -871,15 +906,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF30"/>
+  <dimension ref="A1:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,16 +1006,19 @@
         <v>62</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1066,16 +1107,19 @@
         <v>63</v>
       </c>
       <c r="AD2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE2" t="s">
         <v>37</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>154</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -1149,7 +1193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1223,7 +1267,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -1297,7 +1341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -1370,14 +1414,14 @@
       <c r="Z6" t="s">
         <v>51</v>
       </c>
-      <c r="AD6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -1450,14 +1494,14 @@
       <c r="Z7" t="s">
         <v>51</v>
       </c>
-      <c r="AD7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -1530,14 +1574,14 @@
       <c r="Z8" t="s">
         <v>51</v>
       </c>
-      <c r="AD8" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>68</v>
       </c>
@@ -1610,14 +1654,14 @@
       <c r="Z9" t="s">
         <v>42</v>
       </c>
-      <c r="AD9" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -1690,14 +1734,14 @@
       <c r="Z10" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF10" t="s">
+      <c r="AE10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -1770,14 +1814,14 @@
       <c r="Z11" t="s">
         <v>51</v>
       </c>
-      <c r="AD11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF11" t="s">
+      <c r="AE11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>68</v>
       </c>
@@ -1850,14 +1894,14 @@
       <c r="Z12" t="s">
         <v>42</v>
       </c>
-      <c r="AD12" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF12" t="s">
+      <c r="AE12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -1930,14 +1974,14 @@
       <c r="Z13" t="s">
         <v>51</v>
       </c>
-      <c r="AD13" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="s">
+      <c r="AE13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>68</v>
       </c>
@@ -2010,14 +2054,14 @@
       <c r="Z14" t="s">
         <v>42</v>
       </c>
-      <c r="AD14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF14" t="s">
+      <c r="AE14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -2090,14 +2134,14 @@
       <c r="Z15" t="s">
         <v>51</v>
       </c>
-      <c r="AD15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF15" t="s">
+      <c r="AE15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2170,14 +2214,14 @@
       <c r="Z16" t="s">
         <v>42</v>
       </c>
-      <c r="AD16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" t="s">
+      <c r="AE16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>68</v>
       </c>
@@ -2250,14 +2294,14 @@
       <c r="Z17" t="s">
         <v>42</v>
       </c>
-      <c r="AD17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF17" t="s">
+      <c r="AE17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>68</v>
       </c>
@@ -2330,14 +2374,14 @@
       <c r="Z18" t="s">
         <v>42</v>
       </c>
-      <c r="AD18" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF18" t="s">
+      <c r="AE18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -2410,14 +2454,14 @@
       <c r="Z19" t="s">
         <v>42</v>
       </c>
-      <c r="AD19" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF19" t="s">
+      <c r="AE19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -2490,14 +2534,14 @@
       <c r="Z20" t="s">
         <v>33</v>
       </c>
-      <c r="AD20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF20" t="s">
+      <c r="AE20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2570,14 +2614,14 @@
       <c r="Z21" t="s">
         <v>33</v>
       </c>
-      <c r="AD21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF21" t="s">
+      <c r="AE21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -2650,14 +2694,14 @@
       <c r="Z22" t="s">
         <v>33</v>
       </c>
-      <c r="AD22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF22" t="s">
+      <c r="AE22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -2724,11 +2768,11 @@
       <c r="AB23" t="s">
         <v>51</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>127</v>
       </c>
@@ -2795,11 +2839,11 @@
       <c r="AB24" t="s">
         <v>51</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>127</v>
       </c>
@@ -2866,11 +2910,11 @@
       <c r="AB25" t="s">
         <v>51</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>127</v>
       </c>
@@ -2937,11 +2981,11 @@
       <c r="AB26" t="s">
         <v>42</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>127</v>
       </c>
@@ -3008,11 +3052,11 @@
       <c r="AB27" t="s">
         <v>51</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>127</v>
       </c>
@@ -3079,11 +3123,11 @@
       <c r="AB28" t="s">
         <v>51</v>
       </c>
-      <c r="AE28" t="s">
+      <c r="AF28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>127</v>
       </c>
@@ -3150,11 +3194,11 @@
       <c r="AB29" t="s">
         <v>51</v>
       </c>
-      <c r="AE29" t="s">
+      <c r="AF29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -3221,7 +3265,292 @@
       <c r="AB30" t="s">
         <v>42</v>
       </c>
-      <c r="AE30" t="s">
+      <c r="AF30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N31" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R31" t="s">
+        <v>42</v>
+      </c>
+      <c r="S31" t="s">
+        <v>42</v>
+      </c>
+      <c r="T31" t="s">
+        <v>42</v>
+      </c>
+      <c r="U31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" t="s">
+        <v>42</v>
+      </c>
+      <c r="W31" t="s">
+        <v>42</v>
+      </c>
+      <c r="X31" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC31" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H32" t="s">
+        <v>28</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" t="s">
+        <v>59</v>
+      </c>
+      <c r="O32" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB32" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>33</v>
+      </c>
+      <c r="R33" t="s">
+        <v>51</v>
+      </c>
+      <c r="V33" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB34" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD34" t="s">
         <v>42</v>
       </c>
     </row>

--- a/notebooks/FZD5/input/FZD5_MCOPCB11_individuals.xlsx
+++ b/notebooks/FZD5/input/FZD5_MCOPCB11_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/FZD5/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF11FD1-EEF9-F640-985D-824168FC8244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6410BE4-47AA-EA4F-926D-961E117D3BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24480" yWindow="5440" windowWidth="37400" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1380" yWindow="6900" windowWidth="40960" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="160">
   <si>
     <t>PMID</t>
   </si>
@@ -158,9 +158,6 @@
     <t>Confirmation of FZD5 implication in a cohort of 50 patients with ocular coloboma</t>
   </si>
   <si>
-    <t>ADN120143</t>
-  </si>
-  <si>
     <t>excluded</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
     <t>NP_003459.2:p.(Leu274CysfsTer73)</t>
   </si>
   <si>
-    <t>ADN140259</t>
-  </si>
-  <si>
     <t>P43Y</t>
   </si>
   <si>
@@ -225,9 +219,6 @@
   </si>
   <si>
     <t>HP:0100019</t>
-  </si>
-  <si>
-    <t>SG170145</t>
   </si>
   <si>
     <t>P26Y</t>
@@ -906,14 +897,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH34"/>
+  <dimension ref="A1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -973,10 +965,10 @@
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>18</v>
@@ -985,37 +977,37 @@
         <v>19</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
@@ -1074,10 +1066,10 @@
         <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="U2" t="s">
         <v>35</v>
@@ -1086,48 +1078,48 @@
         <v>36</v>
       </c>
       <c r="W2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="X2" t="s">
         <v>38</v>
       </c>
       <c r="Y2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Z2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AB2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AD2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="AE2" t="s">
         <v>37</v>
       </c>
       <c r="AF2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AG2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
         <v>25</v>
@@ -1145,63 +1137,69 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="K3" t="s">
         <v>33</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="O3" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="Q3" t="s">
         <v>33</v>
       </c>
       <c r="R3" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" t="s">
+        <v>50</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
-      </c>
-      <c r="X3" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
       </c>
       <c r="Y3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
         <v>25</v>
@@ -1219,63 +1217,69 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
         <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="Q4" t="s">
         <v>33</v>
       </c>
       <c r="R4" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" t="s">
+        <v>33</v>
       </c>
       <c r="V4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X4" t="s">
-        <v>42</v>
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
+        <v>33</v>
       </c>
       <c r="Y4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
         <v>25</v>
@@ -1293,60 +1297,66 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="L5" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
-        <v>55</v>
-      </c>
       <c r="Q5" t="s">
         <v>33</v>
       </c>
       <c r="R5" t="s">
-        <v>52</v>
+        <v>41</v>
+      </c>
+      <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" t="s">
+        <v>33</v>
       </c>
       <c r="V5" t="s">
-        <v>52</v>
-      </c>
-      <c r="X5" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="W5" t="s">
+        <v>41</v>
       </c>
       <c r="Y5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
@@ -1367,66 +1377,66 @@
         <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
         <v>33</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" t="s">
         <v>103</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q6" t="s">
         <v>33</v>
       </c>
       <c r="R6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Y6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>71</v>
@@ -1447,66 +1457,66 @@
         <v>29</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K7" t="s">
         <v>33</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N7" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="V7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="W7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>72</v>
@@ -1527,66 +1537,66 @@
         <v>29</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s">
         <v>33</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s">
         <v>54</v>
       </c>
-      <c r="P8" t="s">
-        <v>55</v>
-      </c>
       <c r="Q8" t="s">
         <v>33</v>
       </c>
       <c r="R8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s">
         <v>33</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Y8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
         <v>73</v>
@@ -1607,66 +1617,66 @@
         <v>29</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K9" t="s">
         <v>33</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q9" t="s">
         <v>33</v>
       </c>
       <c r="R9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
@@ -1687,66 +1697,66 @@
         <v>29</v>
       </c>
       <c r="J10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="K10" t="s">
         <v>33</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s">
         <v>54</v>
       </c>
-      <c r="P10" t="s">
-        <v>117</v>
-      </c>
       <c r="Q10" t="s">
         <v>33</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="V10" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="W10" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Y10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AG10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
         <v>75</v>
@@ -1767,66 +1777,66 @@
         <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
         <v>33</v>
       </c>
       <c r="L11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s">
         <v>54</v>
       </c>
-      <c r="P11" t="s">
-        <v>55</v>
-      </c>
       <c r="Q11" t="s">
         <v>33</v>
       </c>
       <c r="R11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="W11" t="s">
         <v>33</v>
       </c>
       <c r="Y11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>76</v>
@@ -1847,66 +1857,66 @@
         <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s">
         <v>33</v>
       </c>
       <c r="L12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s">
         <v>54</v>
       </c>
-      <c r="P12" t="s">
-        <v>117</v>
-      </c>
       <c r="Q12" t="s">
         <v>33</v>
       </c>
       <c r="R12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="V12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AE12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
         <v>77</v>
@@ -1927,66 +1937,66 @@
         <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
         <v>33</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N13" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="O13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="Q13" t="s">
         <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="Y13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>78</v>
@@ -2007,66 +2017,66 @@
         <v>29</v>
       </c>
       <c r="J14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K14" t="s">
         <v>33</v>
       </c>
       <c r="L14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N14" t="s">
         <v>109</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="Q14" t="s">
         <v>33</v>
       </c>
       <c r="R14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="V14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
@@ -2087,66 +2097,66 @@
         <v>29</v>
       </c>
       <c r="J15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
         <v>33</v>
       </c>
       <c r="L15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="Q15" t="s">
         <v>33</v>
       </c>
       <c r="R15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="V15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
         <v>80</v>
@@ -2167,66 +2177,66 @@
         <v>29</v>
       </c>
       <c r="J16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s">
         <v>33</v>
       </c>
       <c r="L16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q16" t="s">
         <v>33</v>
       </c>
       <c r="R16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="V16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
         <v>81</v>
@@ -2247,66 +2257,66 @@
         <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s">
         <v>33</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="Q17" t="s">
         <v>33</v>
       </c>
       <c r="R17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="W17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Y17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AE17" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AG17" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
         <v>82</v>
@@ -2327,66 +2337,66 @@
         <v>29</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>33</v>
       </c>
       <c r="L18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N18" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s">
         <v>54</v>
       </c>
-      <c r="P18" t="s">
-        <v>117</v>
-      </c>
       <c r="Q18" t="s">
         <v>33</v>
       </c>
       <c r="R18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="W18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AE18" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AG18" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>83</v>
@@ -2407,69 +2417,69 @@
         <v>29</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>33</v>
       </c>
       <c r="L19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N19" t="s">
         <v>113</v>
       </c>
       <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s">
         <v>54</v>
       </c>
-      <c r="P19" t="s">
-        <v>117</v>
-      </c>
       <c r="Q19" t="s">
         <v>33</v>
       </c>
       <c r="R19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AE19" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="AG19" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
         <v>25</v>
@@ -2487,69 +2497,60 @@
         <v>29</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="K20" t="s">
         <v>33</v>
       </c>
       <c r="L20" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="M20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N20" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="O20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="Q20" t="s">
         <v>33</v>
       </c>
       <c r="R20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S20" t="s">
-        <v>42</v>
-      </c>
-      <c r="T20" t="s">
-        <v>42</v>
-      </c>
-      <c r="U20" t="s">
-        <v>51</v>
-      </c>
-      <c r="V20" t="s">
-        <v>33</v>
-      </c>
-      <c r="W20" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="X20" t="s">
+        <v>50</v>
       </c>
       <c r="Y20" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
@@ -2567,69 +2568,60 @@
         <v>29</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="K21" t="s">
         <v>33</v>
       </c>
       <c r="L21" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="M21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N21" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="O21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="Q21" t="s">
         <v>33</v>
       </c>
       <c r="R21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s">
-        <v>42</v>
-      </c>
-      <c r="T21" t="s">
-        <v>42</v>
-      </c>
-      <c r="U21" t="s">
-        <v>42</v>
-      </c>
-      <c r="V21" t="s">
-        <v>51</v>
-      </c>
-      <c r="W21" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="X21" t="s">
+        <v>50</v>
       </c>
       <c r="Y21" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -2647,66 +2639,57 @@
         <v>29</v>
       </c>
       <c r="J22" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="K22" t="s">
         <v>33</v>
       </c>
       <c r="L22" t="s">
-        <v>102</v>
+        <v>139</v>
       </c>
       <c r="M22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N22" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="O22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P22" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="Q22" t="s">
         <v>33</v>
       </c>
       <c r="R22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s">
-        <v>42</v>
-      </c>
-      <c r="T22" t="s">
-        <v>42</v>
-      </c>
-      <c r="U22" t="s">
-        <v>42</v>
-      </c>
-      <c r="V22" t="s">
-        <v>51</v>
-      </c>
-      <c r="W22" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="X22" t="s">
+        <v>41</v>
       </c>
       <c r="Y22" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>33</v>
+        <v>50</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
         <v>129</v>
@@ -2727,57 +2710,57 @@
         <v>29</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K23" t="s">
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N23" t="s">
         <v>33</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q23" t="s">
         <v>33</v>
       </c>
       <c r="R23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B24" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C24" t="s">
         <v>130</v>
@@ -2798,57 +2781,57 @@
         <v>29</v>
       </c>
       <c r="J24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K24" t="s">
         <v>33</v>
       </c>
       <c r="L24" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N24" t="s">
         <v>33</v>
       </c>
       <c r="O24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q24" t="s">
         <v>33</v>
       </c>
       <c r="R24" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B25" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" t="s">
         <v>131</v>
@@ -2869,57 +2852,57 @@
         <v>29</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K25" t="s">
         <v>33</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N25" t="s">
         <v>33</v>
       </c>
       <c r="O25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q25" t="s">
         <v>33</v>
       </c>
       <c r="R25" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C26" t="s">
         <v>132</v>
@@ -2940,57 +2923,57 @@
         <v>29</v>
       </c>
       <c r="J26" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="K26" t="s">
         <v>33</v>
       </c>
       <c r="L26" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N26" t="s">
         <v>33</v>
       </c>
       <c r="O26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q26" t="s">
         <v>33</v>
       </c>
       <c r="R26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="S26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AF26" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C27" t="s">
         <v>133</v>
@@ -3011,60 +2994,60 @@
         <v>29</v>
       </c>
       <c r="J27" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K27" t="s">
         <v>33</v>
       </c>
       <c r="L27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N27" t="s">
         <v>33</v>
       </c>
       <c r="O27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q27" t="s">
         <v>33</v>
       </c>
       <c r="R27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA27" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AF27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C28" t="s">
-        <v>134</v>
+        <v>40</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>153</v>
       </c>
       <c r="E28" t="s">
         <v>25</v>
@@ -3081,61 +3064,76 @@
       <c r="I28" t="s">
         <v>29</v>
       </c>
-      <c r="J28" t="s">
-        <v>146</v>
-      </c>
-      <c r="K28" t="s">
-        <v>33</v>
-      </c>
-      <c r="L28" t="s">
-        <v>147</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="J28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N28" t="s">
         <v>52</v>
       </c>
-      <c r="N28" t="s">
-        <v>33</v>
-      </c>
       <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P28" t="s">
-        <v>152</v>
-      </c>
       <c r="Q28" t="s">
         <v>33</v>
       </c>
       <c r="R28" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>41</v>
+      </c>
+      <c r="V28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W28" t="s">
+        <v>41</v>
       </c>
       <c r="X28" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
+        <v>40</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E29" t="s">
         <v>25</v>
@@ -3152,61 +3150,71 @@
       <c r="I29" t="s">
         <v>29</v>
       </c>
-      <c r="J29" t="s">
-        <v>148</v>
-      </c>
-      <c r="K29" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" t="s">
-        <v>149</v>
-      </c>
-      <c r="M29" t="s">
-        <v>52</v>
+      <c r="J29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="N29" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P29" t="s">
-        <v>152</v>
-      </c>
       <c r="Q29" t="s">
         <v>33</v>
       </c>
       <c r="R29" t="s">
-        <v>51</v>
-      </c>
-      <c r="S29" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="U29" t="s">
+        <v>50</v>
+      </c>
+      <c r="V29" t="s">
+        <v>41</v>
+      </c>
+      <c r="W29" t="s">
+        <v>41</v>
       </c>
       <c r="X29" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF29" t="s">
-        <v>51</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH29" s="3"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C30" t="s">
-        <v>136</v>
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>155</v>
       </c>
       <c r="E30" t="s">
         <v>25</v>
@@ -3223,50 +3231,56 @@
       <c r="I30" t="s">
         <v>29</v>
       </c>
-      <c r="J30" t="s">
-        <v>150</v>
-      </c>
-      <c r="K30" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" t="s">
-        <v>151</v>
-      </c>
-      <c r="M30" t="s">
-        <v>52</v>
+      <c r="J30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="N30" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P30" t="s">
-        <v>152</v>
-      </c>
       <c r="Q30" t="s">
         <v>33</v>
       </c>
       <c r="R30" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="V30" t="s">
+        <v>50</v>
+      </c>
+      <c r="W30" t="s">
+        <v>41</v>
       </c>
       <c r="X30" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB30" t="s">
-        <v>42</v>
-      </c>
-      <c r="AF30" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.2">
@@ -3295,263 +3309,52 @@
         <v>29</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="M31" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N31" t="s">
+        <v>51</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>33</v>
-      </c>
-      <c r="R31" t="s">
-        <v>42</v>
-      </c>
-      <c r="S31" t="s">
-        <v>42</v>
-      </c>
-      <c r="T31" t="s">
-        <v>42</v>
-      </c>
-      <c r="U31" t="s">
-        <v>42</v>
+      <c r="Q31" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="V31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>41</v>
       </c>
       <c r="AA31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB31" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC31" s="3" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="AB31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>41</v>
       </c>
       <c r="AD31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N32" t="s">
-        <v>59</v>
-      </c>
-      <c r="O32" t="s">
-        <v>54</v>
-      </c>
-      <c r="P32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC32" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>42</v>
-      </c>
-      <c r="AH32" s="3"/>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" t="s">
-        <v>28</v>
-      </c>
-      <c r="I33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M33" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N33" t="s">
-        <v>65</v>
-      </c>
-      <c r="O33" t="s">
-        <v>54</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>33</v>
-      </c>
-      <c r="R33" t="s">
-        <v>51</v>
-      </c>
-      <c r="V33" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AB33" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC33" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>26</v>
-      </c>
-      <c r="G34" t="s">
-        <v>27</v>
-      </c>
-      <c r="H34" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M34" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q34" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA34" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB34" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
